--- a/biology/Botanique/Jardin_écologique/Jardin_écologique.xlsx
+++ b/biology/Botanique/Jardin_écologique/Jardin_écologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_%C3%A9cologique</t>
+          <t>Jardin_écologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de jardin écologique désigne divers types de jardins, publics ou privés, éventuellement jardins communautaires ou associatifs, ayant en commun d'être conçus, gérés, organisés et cultivés de manière à aussi restaurer et protéger la biodiversité et les équilibres écologiques.
 Le mot « écologique » rappelle que le jardinier s'appuie ici sur la science qui étudie les conditions d’existence des êtres vivants et les rapports qui s’établissent entre eux et leur environnement : l’écologie, qui devient ici une science appliquée. Le jardinier peut ainsi s'appuyer sur des auxiliaires naturels (par exemple la coccinelle qui mange les pucerons, le hérisson ou certains oiseaux (grives, etc.) qui mangent les limaces, etc.) en contrôlant les populations d'espèces susceptibles de devenir des « ravageurs » et donc des indésirables quand elles pullulent.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_%C3%A9cologique</t>
+          <t>Jardin_écologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Spécificités des jardins écologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les jardins écologiques comportent généralement plusieurs spécificités, qui contribuent notamment à son fonctionnement global :
 les principes du développement durable sont souvent mis en œuvre, incluant des aspects sociaux et de convivialité ;
